--- a/data_xlsx/中国_M2.xlsx
+++ b/data_xlsx/中国_M2.xlsx
@@ -95,7 +95,7 @@
         <v>36556.0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>121220.4</v>
+        <v>121220.40000000001</v>
       </c>
     </row>
     <row r="3">
@@ -103,7 +103,7 @@
         <v>36585.0</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>121583.4</v>
+        <v>121583.40000000001</v>
       </c>
     </row>
     <row r="4">
@@ -111,7 +111,7 @@
         <v>36616.0</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>122606.82</v>
+        <v>122606.81999999999</v>
       </c>
     </row>
     <row r="5">
@@ -127,7 +127,7 @@
         <v>36677.0</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>124053.25</v>
+        <v>124053.25000000001</v>
       </c>
     </row>
     <row r="7">
@@ -151,7 +151,7 @@
         <v>36769.0</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>127790.3</v>
+        <v>127790.29999999999</v>
       </c>
     </row>
     <row r="10">
@@ -191,7 +191,7 @@
         <v>36922.0</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>137543.63</v>
+        <v>137543.62999999998</v>
       </c>
     </row>
     <row r="15">
@@ -255,7 +255,7 @@
         <v>37164.0</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>151642.64</v>
+        <v>151642.63999999998</v>
       </c>
     </row>
     <row r="23">
@@ -271,7 +271,7 @@
         <v>37225.0</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>154088.33</v>
+        <v>154088.33000000002</v>
       </c>
     </row>
     <row r="25">
@@ -335,7 +335,7 @@
         <v>37468.0</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>170851.14</v>
+        <v>170851.13999999998</v>
       </c>
     </row>
     <row r="33">
@@ -367,7 +367,7 @@
         <v>37590.0</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>179736.26</v>
+        <v>179736.25999999998</v>
       </c>
     </row>
     <row r="37">
@@ -399,7 +399,7 @@
         <v>37711.0</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>194487.3</v>
+        <v>194487.30000000002</v>
       </c>
     </row>
     <row r="41">
@@ -407,7 +407,7 @@
         <v>37741.0</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>196130.13</v>
+        <v>196130.13000000003</v>
       </c>
     </row>
     <row r="42">
@@ -415,7 +415,7 @@
         <v>37772.0</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>199505.19</v>
+        <v>199505.18999999997</v>
       </c>
     </row>
     <row r="43">
@@ -439,7 +439,7 @@
         <v>37864.0</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>210591.9</v>
+        <v>210591.90000000002</v>
       </c>
     </row>
     <row r="46">
@@ -471,7 +471,7 @@
         <v>37986.0</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>221222.82</v>
+        <v>221222.81999999998</v>
       </c>
     </row>
     <row r="50">
@@ -479,7 +479,7 @@
         <v>38017.0</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>225101.93</v>
+        <v>225101.93000000002</v>
       </c>
     </row>
     <row r="51">
@@ -527,7 +527,7 @@
         <v>38199.0</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>238126.97</v>
+        <v>238126.96999999997</v>
       </c>
     </row>
     <row r="57">
@@ -551,7 +551,7 @@
         <v>38291.0</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>243740.32</v>
+        <v>243740.31999999998</v>
       </c>
     </row>
     <row r="60">
@@ -567,7 +567,7 @@
         <v>38352.0</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>253207.7</v>
+        <v>253207.69999999998</v>
       </c>
     </row>
     <row r="62">
@@ -583,7 +583,7 @@
         <v>38411.0</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>259357.29</v>
+        <v>259357.28999999998</v>
       </c>
     </row>
     <row r="64">
@@ -615,7 +615,7 @@
         <v>38533.0</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>275785.53</v>
+        <v>275785.52999999997</v>
       </c>
     </row>
     <row r="68">
@@ -639,7 +639,7 @@
         <v>38625.0</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>287438.27</v>
+        <v>287438.26999999996</v>
       </c>
     </row>
     <row r="71">
@@ -671,7 +671,7 @@
         <v>38748.0</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>303571.65</v>
+        <v>303571.64999999997</v>
       </c>
     </row>
     <row r="75">
@@ -695,7 +695,7 @@
         <v>38837.0</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>313702.34</v>
+        <v>313702.33999999997</v>
       </c>
     </row>
     <row r="78">
@@ -751,7 +751,7 @@
         <v>39051.0</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>337504.15</v>
+        <v>337504.14999999997</v>
       </c>
     </row>
     <row r="85">
@@ -783,7 +783,7 @@
         <v>39172.0</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>364104.66</v>
+        <v>364104.66000000003</v>
       </c>
     </row>
     <row r="89">
@@ -823,7 +823,7 @@
         <v>39325.0</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>387205.04</v>
+        <v>387205.0399999999</v>
       </c>
     </row>
     <row r="94">
@@ -863,7 +863,7 @@
         <v>39478.0</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>417846.17</v>
+        <v>417846.17000000004</v>
       </c>
     </row>
     <row r="99">
@@ -871,7 +871,7 @@
         <v>39507.0</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>421037.84</v>
+        <v>421037.8399999999</v>
       </c>
     </row>
     <row r="100">
@@ -879,7 +879,7 @@
         <v>39538.0</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>423054.53</v>
+        <v>423054.5299999999</v>
       </c>
     </row>
     <row r="101">
@@ -895,7 +895,7 @@
         <v>39599.0</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>436221.6</v>
+        <v>436221.5999999999</v>
       </c>
     </row>
     <row r="103">
@@ -911,7 +911,7 @@
         <v>39660.0</v>
       </c>
       <c r="B104" s="2" t="n">
-        <v>446362.17</v>
+        <v>446362.1699999999</v>
       </c>
     </row>
     <row r="105">
@@ -919,7 +919,7 @@
         <v>39691.0</v>
       </c>
       <c r="B105" s="2" t="n">
-        <v>448846.68</v>
+        <v>448846.67999999993</v>
       </c>
     </row>
     <row r="106">
@@ -943,7 +943,7 @@
         <v>39782.0</v>
       </c>
       <c r="B108" s="2" t="n">
-        <v>458644.66</v>
+        <v>458644.66000000003</v>
       </c>
     </row>
     <row r="109">
@@ -967,7 +967,7 @@
         <v>39872.0</v>
       </c>
       <c r="B111" s="2" t="n">
-        <v>506708.07</v>
+        <v>506708.06999999995</v>
       </c>
     </row>
     <row r="112">
@@ -1023,7 +1023,7 @@
         <v>40086.0</v>
       </c>
       <c r="B118" s="2" t="n">
-        <v>585405.34</v>
+        <v>585405.3400000001</v>
       </c>
     </row>
     <row r="119">
@@ -1111,7 +1111,7 @@
         <v>40421.0</v>
       </c>
       <c r="B129" s="2" t="n">
-        <v>687506.92</v>
+        <v>687506.9199999999</v>
       </c>
     </row>
     <row r="130">
@@ -1127,7 +1127,7 @@
         <v>40482.0</v>
       </c>
       <c r="B131" s="2" t="n">
-        <v>699776.74</v>
+        <v>699776.7399999999</v>
       </c>
     </row>
     <row r="132">
@@ -1135,7 +1135,7 @@
         <v>40512.0</v>
       </c>
       <c r="B132" s="2" t="n">
-        <v>710339.03</v>
+        <v>710339.0299999999</v>
       </c>
     </row>
     <row r="133">
@@ -1143,7 +1143,7 @@
         <v>40543.0</v>
       </c>
       <c r="B133" s="2" t="n">
-        <v>725851.79</v>
+        <v>725851.7899999999</v>
       </c>
     </row>
     <row r="134">
@@ -1175,7 +1175,7 @@
         <v>40663.0</v>
       </c>
       <c r="B137" s="2" t="n">
-        <v>757384.56</v>
+        <v>757384.5599999999</v>
       </c>
     </row>
     <row r="138">
@@ -1191,7 +1191,7 @@
         <v>40724.0</v>
       </c>
       <c r="B139" s="2" t="n">
-        <v>780820.85</v>
+        <v>780820.8500000001</v>
       </c>
     </row>
     <row r="140">
@@ -1199,7 +1199,7 @@
         <v>40755.0</v>
       </c>
       <c r="B140" s="2" t="n">
-        <v>772923.65</v>
+        <v>772923.6499999999</v>
       </c>
     </row>
     <row r="141">
@@ -1207,7 +1207,7 @@
         <v>40786.0</v>
       </c>
       <c r="B141" s="2" t="n">
-        <v>780852.3</v>
+        <v>780852.2999999999</v>
       </c>
     </row>
     <row r="142">
@@ -1231,7 +1231,7 @@
         <v>40877.0</v>
       </c>
       <c r="B144" s="2" t="n">
-        <v>825493.94</v>
+        <v>825493.9400000001</v>
       </c>
     </row>
     <row r="145">
@@ -1263,7 +1263,7 @@
         <v>40999.0</v>
       </c>
       <c r="B148" s="2" t="n">
-        <v>895565.5</v>
+        <v>895565.5000000001</v>
       </c>
     </row>
     <row r="149">
@@ -1295,7 +1295,7 @@
         <v>41121.0</v>
       </c>
       <c r="B152" s="2" t="n">
-        <v>919072.4</v>
+        <v>919072.3999999999</v>
       </c>
     </row>
     <row r="153">
@@ -1311,7 +1311,7 @@
         <v>41182.0</v>
       </c>
       <c r="B154" s="2" t="n">
-        <v>943688.75</v>
+        <v>943688.7500000001</v>
       </c>
     </row>
     <row r="155">
@@ -1327,7 +1327,7 @@
         <v>41243.0</v>
       </c>
       <c r="B156" s="2" t="n">
-        <v>944832.35</v>
+        <v>944832.3500000001</v>
       </c>
     </row>
     <row r="157">
@@ -1343,7 +1343,7 @@
         <v>41305.0</v>
       </c>
       <c r="B158" s="2" t="n">
-        <v>992129.25</v>
+        <v>992129.2499999999</v>
       </c>
     </row>
     <row r="159">
@@ -1367,7 +1367,7 @@
         <v>41394.0</v>
       </c>
       <c r="B161" s="2" t="n">
-        <v>1032551.9</v>
+        <v>1032551.8999999999</v>
       </c>
     </row>
     <row r="162">
@@ -1407,7 +1407,7 @@
         <v>41547.0</v>
       </c>
       <c r="B166" s="2" t="n">
-        <v>1077379.16</v>
+        <v>1077379.1600000001</v>
       </c>
     </row>
     <row r="167">
@@ -1575,7 +1575,7 @@
         <v>42185.0</v>
       </c>
       <c r="B187" s="2" t="n">
-        <v>1333375.36</v>
+        <v>1333375.3599999999</v>
       </c>
     </row>
     <row r="188">
@@ -1631,7 +1631,7 @@
         <v>42400.0</v>
       </c>
       <c r="B194" s="2" t="n">
-        <v>1416319.55</v>
+        <v>1416319.5499999998</v>
       </c>
     </row>
     <row r="195">
@@ -1663,7 +1663,7 @@
         <v>42521.0</v>
       </c>
       <c r="B198" s="2" t="n">
-        <v>1461695.11</v>
+        <v>1461695.1099999999</v>
       </c>
     </row>
     <row r="199">
@@ -1671,7 +1671,7 @@
         <v>42551.0</v>
       </c>
       <c r="B199" s="2" t="n">
-        <v>1490491.83</v>
+        <v>1490491.8299999998</v>
       </c>
     </row>
     <row r="200">
@@ -1711,7 +1711,7 @@
         <v>42704.0</v>
       </c>
       <c r="B204" s="2" t="n">
-        <v>1530432.06</v>
+        <v>1530432.0599999998</v>
       </c>
     </row>
     <row r="205">
@@ -1735,7 +1735,7 @@
         <v>42794.0</v>
       </c>
       <c r="B207" s="2" t="n">
-        <v>1589856.995</v>
+        <v>1589856.9949999999</v>
       </c>
     </row>
     <row r="208">
@@ -1743,7 +1743,7 @@
         <v>42825.0</v>
       </c>
       <c r="B208" s="2" t="n">
-        <v>1607938.98</v>
+        <v>1607938.9799999997</v>
       </c>
     </row>
     <row r="209">
@@ -1751,7 +1751,7 @@
         <v>42855.0</v>
       </c>
       <c r="B209" s="2" t="n">
-        <v>1603918.84</v>
+        <v>1603918.8399999999</v>
       </c>
     </row>
     <row r="210">
@@ -1759,7 +1759,7 @@
         <v>42886.0</v>
       </c>
       <c r="B210" s="2" t="n">
-        <v>1609740.774</v>
+        <v>1609740.7739999997</v>
       </c>
     </row>
     <row r="211">
@@ -1767,7 +1767,7 @@
         <v>42916.0</v>
       </c>
       <c r="B211" s="2" t="n">
-        <v>1639497.045</v>
+        <v>1639497.0450000002</v>
       </c>
     </row>
     <row r="212">
@@ -1783,7 +1783,7 @@
         <v>42978.0</v>
       </c>
       <c r="B213" s="2" t="n">
-        <v>1652947.3</v>
+        <v>1652947.2999999998</v>
       </c>
     </row>
     <row r="214">
@@ -1799,7 +1799,7 @@
         <v>43039.0</v>
       </c>
       <c r="B215" s="2" t="n">
-        <v>1662449.96</v>
+        <v>1662449.9600000002</v>
       </c>
     </row>
     <row r="216">
@@ -1815,7 +1815,7 @@
         <v>43100.0</v>
       </c>
       <c r="B217" s="2" t="n">
-        <v>1690235.315</v>
+        <v>1690235.3149999997</v>
       </c>
     </row>
     <row r="218">
@@ -1839,7 +1839,7 @@
         <v>43190.0</v>
       </c>
       <c r="B220" s="2" t="n">
-        <v>1739859.48</v>
+        <v>1739859.4799999997</v>
       </c>
     </row>
     <row r="221">
@@ -1847,7 +1847,7 @@
         <v>43220.0</v>
       </c>
       <c r="B221" s="2" t="n">
-        <v>1737683.73</v>
+        <v>1737683.7299999997</v>
       </c>
     </row>
     <row r="222">
@@ -1871,7 +1871,7 @@
         <v>43312.0</v>
       </c>
       <c r="B224" s="2" t="n">
-        <v>1776196.105</v>
+        <v>1776196.1050000002</v>
       </c>
     </row>
     <row r="225">
@@ -1887,7 +1887,7 @@
         <v>43373.0</v>
       </c>
       <c r="B226" s="2" t="n">
-        <v>1801665.58</v>
+        <v>1801665.5799999998</v>
       </c>
     </row>
     <row r="227">
@@ -1919,7 +1919,7 @@
         <v>43496.0</v>
       </c>
       <c r="B230" s="2" t="n">
-        <v>1865935.33</v>
+        <v>1865935.3299999998</v>
       </c>
     </row>
     <row r="231">
@@ -1927,7 +1927,7 @@
         <v>43524.0</v>
       </c>
       <c r="B231" s="2" t="n">
-        <v>1867427.45</v>
+        <v>1867427.4500000002</v>
       </c>
     </row>
     <row r="232">
@@ -1935,7 +1935,7 @@
         <v>43555.0</v>
       </c>
       <c r="B232" s="2" t="n">
-        <v>1889412.137</v>
+        <v>1889412.1369999999</v>
       </c>
     </row>
     <row r="233">
@@ -1959,7 +1959,7 @@
         <v>43646.0</v>
       </c>
       <c r="B235" s="2" t="n">
-        <v>1921360.19</v>
+        <v>1921360.1900000002</v>
       </c>
     </row>
     <row r="236">
@@ -1967,7 +1967,7 @@
         <v>43677.0</v>
       </c>
       <c r="B236" s="2" t="n">
-        <v>1919410.816</v>
+        <v>1919410.8159999999</v>
       </c>
     </row>
     <row r="237">
@@ -1975,7 +1975,7 @@
         <v>43708.0</v>
       </c>
       <c r="B237" s="2" t="n">
-        <v>1935492.428</v>
+        <v>1935492.4279999998</v>
       </c>
     </row>
     <row r="238">
@@ -1983,7 +1983,7 @@
         <v>43738.0</v>
       </c>
       <c r="B238" s="2" t="n">
-        <v>1952250.486</v>
+        <v>1952250.4859999998</v>
       </c>
     </row>
     <row r="239">
@@ -1999,7 +1999,7 @@
         <v>43799.0</v>
       </c>
       <c r="B240" s="2" t="n">
-        <v>1961429.562</v>
+        <v>1961429.5620000002</v>
       </c>
     </row>
     <row r="241">
@@ -2031,7 +2031,7 @@
         <v>43921.0</v>
       </c>
       <c r="B244" s="2" t="n">
-        <v>2080923.41</v>
+        <v>2080923.4100000001</v>
       </c>
     </row>
     <row r="245">
@@ -2103,7 +2103,7 @@
         <v>44196.0</v>
       </c>
       <c r="B253" s="2" t="n">
-        <v>2186795.89</v>
+        <v>2186795.8899999997</v>
       </c>
     </row>
     <row r="254">
@@ -2175,7 +2175,7 @@
         <v>44469.0</v>
       </c>
       <c r="B262" s="2" t="n">
-        <v>2342829.7</v>
+        <v>2342829.6999999997</v>
       </c>
     </row>
     <row r="263">
@@ -2338,8 +2338,16 @@
         <v>2820504.68</v>
       </c>
     </row>
-    <row r="284">
-      <c r="A284" s="3" t="inlineStr">
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>45107.0</v>
+      </c>
+      <c r="B283" s="2" t="n">
+        <v>2873000.0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="3" t="inlineStr">
         <is>
           <t>数据来源：Wind</t>
         </is>

--- a/data_xlsx/中国_M2.xlsx
+++ b/data_xlsx/中国_M2.xlsx
@@ -2343,11 +2343,19 @@
         <v>45107.0</v>
       </c>
       <c r="B283" s="2" t="n">
-        <v>2873000.0</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" s="3" t="inlineStr">
+        <v>2873023.83</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>45138.0</v>
+      </c>
+      <c r="B284" s="2" t="n">
+        <v>2854031.56</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="3" t="inlineStr">
         <is>
           <t>数据来源：Wind</t>
         </is>
